--- a/03-Pandas/data/mi_df_colores.xlsx
+++ b/03-Pandas/data/mi_df_colores.xlsx
@@ -7903,6 +7903,355 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Artistas!$B$2:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>16412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16424</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16427</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16429</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16431</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16432</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16433</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16434</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16436</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16438</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16439</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16440</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16441</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4704</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4706</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4707</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4709</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4710</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4711</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11838</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5728</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8403</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12154</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5603</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6187</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4965</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10490</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11362</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13890</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16090</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7021</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8239</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10526</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10527</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10528</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10529</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10530</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10531</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10280</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10282</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10284</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10285</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9044</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15685</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15686</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15687</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="2"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40709,5 +41058,6 @@
     <hyperlink ref="U540" r:id="rId1047"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1048"/>
 </worksheet>
 </file>